--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema4d-Met.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema4d-Met.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.00683539768261</v>
+        <v>55.59510733333332</v>
       </c>
       <c r="H2">
-        <v>3.00683539768261</v>
+        <v>166.785322</v>
       </c>
       <c r="I2">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="J2">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.965402633644852</v>
+        <v>1.655851666666667</v>
       </c>
       <c r="N2">
-        <v>0.965402633644852</v>
+        <v>4.967555</v>
       </c>
       <c r="O2">
-        <v>0.02295289496531967</v>
+        <v>0.03628213169899143</v>
       </c>
       <c r="P2">
-        <v>0.02295289496531967</v>
+        <v>0.03628213169899143</v>
       </c>
       <c r="Q2">
-        <v>2.902806811859358</v>
+        <v>92.05725113641221</v>
       </c>
       <c r="R2">
-        <v>2.902806811859358</v>
+        <v>828.5152602277099</v>
       </c>
       <c r="S2">
-        <v>0.001105004600879873</v>
+        <v>0.01646200530144416</v>
       </c>
       <c r="T2">
-        <v>0.001105004600879873</v>
+        <v>0.01646200530144415</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.00683539768261</v>
+        <v>55.59510733333332</v>
       </c>
       <c r="H3">
-        <v>3.00683539768261</v>
+        <v>166.785322</v>
       </c>
       <c r="I3">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="J3">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.41561530186034</v>
+        <v>1.416382666666667</v>
       </c>
       <c r="N3">
-        <v>1.41561530186034</v>
+        <v>4.249148</v>
       </c>
       <c r="O3">
-        <v>0.03365690977268751</v>
+        <v>0.03103501568568562</v>
       </c>
       <c r="P3">
-        <v>0.03365690977268751</v>
+        <v>0.03103501568568562</v>
       </c>
       <c r="Q3">
-        <v>4.256522199134824</v>
+        <v>78.74394637840621</v>
       </c>
       <c r="R3">
-        <v>4.256522199134824</v>
+        <v>708.6955174056559</v>
       </c>
       <c r="S3">
-        <v>0.001620320234393601</v>
+        <v>0.0140812727594603</v>
       </c>
       <c r="T3">
-        <v>0.001620320234393601</v>
+        <v>0.0140812727594603</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.00683539768261</v>
+        <v>55.59510733333332</v>
       </c>
       <c r="H4">
-        <v>3.00683539768261</v>
+        <v>166.785322</v>
       </c>
       <c r="I4">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="J4">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.57298981575489</v>
+        <v>5.385314999999999</v>
       </c>
       <c r="N4">
-        <v>3.57298981575489</v>
+        <v>16.155945</v>
       </c>
       <c r="O4">
-        <v>0.08494948852951702</v>
+        <v>0.1180001276707882</v>
       </c>
       <c r="P4">
-        <v>0.08494948852951702</v>
+        <v>0.1180001276707882</v>
       </c>
       <c r="Q4">
-        <v>10.74339225357127</v>
+        <v>299.3971654488099</v>
       </c>
       <c r="R4">
-        <v>10.74339225357127</v>
+        <v>2694.574489039289</v>
       </c>
       <c r="S4">
-        <v>0.004089661709746817</v>
+        <v>0.05353926674990819</v>
       </c>
       <c r="T4">
-        <v>0.004089661709746817</v>
+        <v>0.05353926674990819</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.00683539768261</v>
+        <v>55.59510733333332</v>
       </c>
       <c r="H5">
-        <v>3.00683539768261</v>
+        <v>166.785322</v>
       </c>
       <c r="I5">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="J5">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.1061609160698</v>
+        <v>37.180664</v>
       </c>
       <c r="N5">
-        <v>36.1061609160698</v>
+        <v>111.541992</v>
       </c>
       <c r="O5">
-        <v>0.8584407067324759</v>
+        <v>0.8146827249445348</v>
       </c>
       <c r="P5">
-        <v>0.8584407067324759</v>
+        <v>0.8146827249445348</v>
       </c>
       <c r="Q5">
-        <v>108.565282716863</v>
+        <v>2067.063005804602</v>
       </c>
       <c r="R5">
-        <v>108.565282716863</v>
+        <v>18603.56705224142</v>
       </c>
       <c r="S5">
-        <v>0.04132728930077012</v>
+        <v>0.3696395638573989</v>
       </c>
       <c r="T5">
-        <v>0.04132728930077012</v>
+        <v>0.3696395638573989</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.38463888208636</v>
+        <v>1.654659</v>
       </c>
       <c r="H6">
-        <v>1.38463888208636</v>
+        <v>4.963977</v>
       </c>
       <c r="I6">
-        <v>0.02216937683372475</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="J6">
-        <v>0.02216937683372475</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.965402633644852</v>
+        <v>1.655851666666667</v>
       </c>
       <c r="N6">
-        <v>0.965402633644852</v>
+        <v>4.967555</v>
       </c>
       <c r="O6">
-        <v>0.02295289496531967</v>
+        <v>0.03628213169899143</v>
       </c>
       <c r="P6">
-        <v>0.02295289496531967</v>
+        <v>0.03628213169899143</v>
       </c>
       <c r="Q6">
-        <v>1.336734023413236</v>
+        <v>2.739869862915</v>
       </c>
       <c r="R6">
-        <v>1.336734023413236</v>
+        <v>24.658828766235</v>
       </c>
       <c r="S6">
-        <v>0.0005088513779110753</v>
+        <v>0.0004899532807224299</v>
       </c>
       <c r="T6">
-        <v>0.0005088513779110753</v>
+        <v>0.0004899532807224298</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.38463888208636</v>
+        <v>1.654659</v>
       </c>
       <c r="H7">
-        <v>1.38463888208636</v>
+        <v>4.963977</v>
       </c>
       <c r="I7">
-        <v>0.02216937683372475</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="J7">
-        <v>0.02216937683372475</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.41561530186034</v>
+        <v>1.416382666666667</v>
       </c>
       <c r="N7">
-        <v>1.41561530186034</v>
+        <v>4.249148</v>
       </c>
       <c r="O7">
-        <v>0.03365690977268751</v>
+        <v>0.03103501568568562</v>
       </c>
       <c r="P7">
-        <v>0.03365690977268751</v>
+        <v>0.03103501568568562</v>
       </c>
       <c r="Q7">
-        <v>1.960115989032246</v>
+        <v>2.343630326844</v>
       </c>
       <c r="R7">
-        <v>1.960115989032246</v>
+        <v>21.092672941596</v>
       </c>
       <c r="S7">
-        <v>0.0007461527158093826</v>
+        <v>0.0004190963165732742</v>
       </c>
       <c r="T7">
-        <v>0.0007461527158093826</v>
+        <v>0.0004190963165732742</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.38463888208636</v>
+        <v>1.654659</v>
       </c>
       <c r="H8">
-        <v>1.38463888208636</v>
+        <v>4.963977</v>
       </c>
       <c r="I8">
-        <v>0.02216937683372475</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="J8">
-        <v>0.02216937683372475</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.57298981575489</v>
+        <v>5.385314999999999</v>
       </c>
       <c r="N8">
-        <v>3.57298981575489</v>
+        <v>16.155945</v>
       </c>
       <c r="O8">
-        <v>0.08494948852951702</v>
+        <v>0.1180001276707882</v>
       </c>
       <c r="P8">
-        <v>0.08494948852951702</v>
+        <v>0.1180001276707882</v>
       </c>
       <c r="Q8">
-        <v>4.9473006241928</v>
+        <v>8.910859932584998</v>
       </c>
       <c r="R8">
-        <v>4.9473006241928</v>
+        <v>80.197739393265</v>
       </c>
       <c r="S8">
-        <v>0.001883277223043041</v>
+        <v>0.001593471688973979</v>
       </c>
       <c r="T8">
-        <v>0.001883277223043041</v>
+        <v>0.001593471688973979</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.38463888208636</v>
+        <v>1.654659</v>
       </c>
       <c r="H9">
-        <v>1.38463888208636</v>
+        <v>4.963977</v>
       </c>
       <c r="I9">
-        <v>0.02216937683372475</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="J9">
-        <v>0.02216937683372475</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>36.1061609160698</v>
+        <v>37.180664</v>
       </c>
       <c r="N9">
-        <v>36.1061609160698</v>
+        <v>111.541992</v>
       </c>
       <c r="O9">
-        <v>0.8584407067324759</v>
+        <v>0.8146827249445348</v>
       </c>
       <c r="P9">
-        <v>0.8584407067324759</v>
+        <v>0.8146827249445348</v>
       </c>
       <c r="Q9">
-        <v>49.99399428725711</v>
+        <v>61.521320313576</v>
       </c>
       <c r="R9">
-        <v>49.99399428725711</v>
+        <v>553.691882822184</v>
       </c>
       <c r="S9">
-        <v>0.01903109551696125</v>
+        <v>0.01100146146720369</v>
       </c>
       <c r="T9">
-        <v>0.01903109551696125</v>
+        <v>0.01100146146720369</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.0289658110759</v>
+        <v>62.05924166666666</v>
       </c>
       <c r="H10">
-        <v>55.0289658110759</v>
+        <v>186.177725</v>
       </c>
       <c r="I10">
-        <v>0.8810657389583608</v>
+        <v>0.5064771225734745</v>
       </c>
       <c r="J10">
-        <v>0.8810657389583608</v>
+        <v>0.5064771225734744</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.965402633644852</v>
+        <v>1.655851666666667</v>
       </c>
       <c r="N10">
-        <v>0.965402633644852</v>
+        <v>4.967555</v>
       </c>
       <c r="O10">
-        <v>0.02295289496531967</v>
+        <v>0.03628213169899143</v>
       </c>
       <c r="P10">
-        <v>0.02295289496531967</v>
+        <v>0.03628213169899143</v>
       </c>
       <c r="Q10">
-        <v>53.1251085207652</v>
+        <v>102.7608987458194</v>
       </c>
       <c r="R10">
-        <v>53.1251085207652</v>
+        <v>924.8480887123749</v>
       </c>
       <c r="S10">
-        <v>0.02022300936385301</v>
+        <v>0.01837606966373703</v>
       </c>
       <c r="T10">
-        <v>0.02022300936385301</v>
+        <v>0.01837606966373703</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>55.0289658110759</v>
+        <v>62.05924166666666</v>
       </c>
       <c r="H11">
-        <v>55.0289658110759</v>
+        <v>186.177725</v>
       </c>
       <c r="I11">
-        <v>0.8810657389583608</v>
+        <v>0.5064771225734745</v>
       </c>
       <c r="J11">
-        <v>0.8810657389583608</v>
+        <v>0.5064771225734744</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.41561530186034</v>
+        <v>1.416382666666667</v>
       </c>
       <c r="N11">
-        <v>1.41561530186034</v>
+        <v>4.249148</v>
       </c>
       <c r="O11">
-        <v>0.03365690977268751</v>
+        <v>0.03103501568568562</v>
       </c>
       <c r="P11">
-        <v>0.03365690977268751</v>
+        <v>0.03103501568568562</v>
       </c>
       <c r="Q11">
-        <v>77.89984604770854</v>
+        <v>87.89963420314443</v>
       </c>
       <c r="R11">
-        <v>77.89984604770854</v>
+        <v>791.0967078282999</v>
       </c>
       <c r="S11">
-        <v>0.0296539500799278</v>
+        <v>0.0157185254435087</v>
       </c>
       <c r="T11">
-        <v>0.0296539500799278</v>
+        <v>0.0157185254435087</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.0289658110759</v>
+        <v>62.05924166666666</v>
       </c>
       <c r="H12">
-        <v>55.0289658110759</v>
+        <v>186.177725</v>
       </c>
       <c r="I12">
-        <v>0.8810657389583608</v>
+        <v>0.5064771225734745</v>
       </c>
       <c r="J12">
-        <v>0.8810657389583608</v>
+        <v>0.5064771225734744</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.57298981575489</v>
+        <v>5.385314999999999</v>
       </c>
       <c r="N12">
-        <v>3.57298981575489</v>
+        <v>16.155945</v>
       </c>
       <c r="O12">
-        <v>0.08494948852951702</v>
+        <v>0.1180001276707882</v>
       </c>
       <c r="P12">
-        <v>0.08494948852951702</v>
+        <v>0.1180001276707882</v>
       </c>
       <c r="Q12">
-        <v>196.6179344144982</v>
+        <v>334.2085650361249</v>
       </c>
       <c r="R12">
-        <v>196.6179344144982</v>
+        <v>3007.877085325124</v>
       </c>
       <c r="S12">
-        <v>0.07484608388539371</v>
+        <v>0.05976436512600342</v>
       </c>
       <c r="T12">
-        <v>0.07484608388539371</v>
+        <v>0.05976436512600342</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.0289658110759</v>
+        <v>62.05924166666666</v>
       </c>
       <c r="H13">
-        <v>55.0289658110759</v>
+        <v>186.177725</v>
       </c>
       <c r="I13">
-        <v>0.8810657389583608</v>
+        <v>0.5064771225734745</v>
       </c>
       <c r="J13">
-        <v>0.8810657389583608</v>
+        <v>0.5064771225734744</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.1061609160698</v>
+        <v>37.180664</v>
       </c>
       <c r="N13">
-        <v>36.1061609160698</v>
+        <v>111.541992</v>
       </c>
       <c r="O13">
-        <v>0.8584407067324759</v>
+        <v>0.8146827249445348</v>
       </c>
       <c r="P13">
-        <v>0.8584407067324759</v>
+        <v>0.8146827249445348</v>
       </c>
       <c r="Q13">
-        <v>1986.88469461961</v>
+        <v>2307.403812503133</v>
       </c>
       <c r="R13">
-        <v>1986.88469461961</v>
+        <v>20766.6343125282</v>
       </c>
       <c r="S13">
-        <v>0.7563426956291863</v>
+        <v>0.4126181623402254</v>
       </c>
       <c r="T13">
-        <v>0.7563426956291863</v>
+        <v>0.4126181623402253</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.03683565810645</v>
+        <v>3.222176333333334</v>
       </c>
       <c r="H14">
-        <v>3.03683565810645</v>
+        <v>9.666529000000001</v>
       </c>
       <c r="I14">
-        <v>0.04862260836212409</v>
+        <v>0.02629678600484052</v>
       </c>
       <c r="J14">
-        <v>0.04862260836212409</v>
+        <v>0.02629678600484052</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.965402633644852</v>
+        <v>1.655851666666667</v>
       </c>
       <c r="N14">
-        <v>0.965402633644852</v>
+        <v>4.967555</v>
       </c>
       <c r="O14">
-        <v>0.02295289496531967</v>
+        <v>0.03628213169899143</v>
       </c>
       <c r="P14">
-        <v>0.02295289496531967</v>
+        <v>0.03628213169899143</v>
       </c>
       <c r="Q14">
-        <v>2.931769142282564</v>
+        <v>5.335446051843889</v>
       </c>
       <c r="R14">
-        <v>2.931769142282564</v>
+        <v>48.019014466595</v>
       </c>
       <c r="S14">
-        <v>0.001116029622675708</v>
+        <v>0.0009541034530878184</v>
       </c>
       <c r="T14">
-        <v>0.001116029622675708</v>
+        <v>0.0009541034530878182</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.03683565810645</v>
+        <v>3.222176333333334</v>
       </c>
       <c r="H15">
-        <v>3.03683565810645</v>
+        <v>9.666529000000001</v>
       </c>
       <c r="I15">
-        <v>0.04862260836212409</v>
+        <v>0.02629678600484052</v>
       </c>
       <c r="J15">
-        <v>0.04862260836212409</v>
+        <v>0.02629678600484052</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.41561530186034</v>
+        <v>1.416382666666667</v>
       </c>
       <c r="N15">
-        <v>1.41561530186034</v>
+        <v>4.249148</v>
       </c>
       <c r="O15">
-        <v>0.03365690977268751</v>
+        <v>0.03103501568568562</v>
       </c>
       <c r="P15">
-        <v>0.03365690977268751</v>
+        <v>0.03103501568568562</v>
       </c>
       <c r="Q15">
-        <v>4.298991026850606</v>
+        <v>4.563834707476889</v>
       </c>
       <c r="R15">
-        <v>4.298991026850606</v>
+        <v>41.074512367292</v>
       </c>
       <c r="S15">
-        <v>0.001636486742556732</v>
+        <v>0.0008161211661433436</v>
       </c>
       <c r="T15">
-        <v>0.001636486742556732</v>
+        <v>0.0008161211661433436</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.03683565810645</v>
+        <v>3.222176333333334</v>
       </c>
       <c r="H16">
-        <v>3.03683565810645</v>
+        <v>9.666529000000001</v>
       </c>
       <c r="I16">
-        <v>0.04862260836212409</v>
+        <v>0.02629678600484052</v>
       </c>
       <c r="J16">
-        <v>0.04862260836212409</v>
+        <v>0.02629678600484052</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.57298981575489</v>
+        <v>5.385314999999999</v>
       </c>
       <c r="N16">
-        <v>3.57298981575489</v>
+        <v>16.155945</v>
       </c>
       <c r="O16">
-        <v>0.08494948852951702</v>
+        <v>0.1180001276707882</v>
       </c>
       <c r="P16">
-        <v>0.08494948852951702</v>
+        <v>0.1180001276707882</v>
       </c>
       <c r="Q16">
-        <v>10.85058287853565</v>
+        <v>17.352434540545</v>
       </c>
       <c r="R16">
-        <v>10.85058287853565</v>
+        <v>156.171910864905</v>
       </c>
       <c r="S16">
-        <v>0.004130465711333458</v>
+        <v>0.003103024105902576</v>
       </c>
       <c r="T16">
-        <v>0.004130465711333458</v>
+        <v>0.003103024105902576</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.03683565810645</v>
+        <v>3.222176333333334</v>
       </c>
       <c r="H17">
-        <v>3.03683565810645</v>
+        <v>9.666529000000001</v>
       </c>
       <c r="I17">
-        <v>0.04862260836212409</v>
+        <v>0.02629678600484052</v>
       </c>
       <c r="J17">
-        <v>0.04862260836212409</v>
+        <v>0.02629678600484052</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>36.1061609160698</v>
+        <v>37.180664</v>
       </c>
       <c r="N17">
-        <v>36.1061609160698</v>
+        <v>111.541992</v>
       </c>
       <c r="O17">
-        <v>0.8584407067324759</v>
+        <v>0.8146827249445348</v>
       </c>
       <c r="P17">
-        <v>0.8584407067324759</v>
+        <v>0.8146827249445348</v>
       </c>
       <c r="Q17">
-        <v>109.6484769472502</v>
+        <v>119.8026555984187</v>
       </c>
       <c r="R17">
-        <v>109.6484769472502</v>
+        <v>1078.223900385768</v>
       </c>
       <c r="S17">
-        <v>0.04173962628555819</v>
+        <v>0.02142353727970678</v>
       </c>
       <c r="T17">
-        <v>0.04173962628555819</v>
+        <v>0.02142353727970678</v>
       </c>
     </row>
   </sheetData>
